--- a/practica3/trazas.xlsx
+++ b/practica3/trazas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devnote\Desktop\programacion_concurrente\practica3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C136A8FD-AF89-4C26-9E1E-7F563A4E00D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A6CA5-EB24-4DB6-AD82-334FAA23CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0C96B478-7B41-42E6-8BD9-F1D545B7F386}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>EJERCICIO 1</t>
   </si>
@@ -160,13 +160,143 @@
   </si>
   <si>
     <t>A) tomarFlag NO ES ATÓMICA</t>
+  </si>
+  <si>
+    <t>EJERCICIO 5</t>
+  </si>
+  <si>
+    <t>getTurn()</t>
+  </si>
+  <si>
+    <t>ticket = 0</t>
+  </si>
+  <si>
+    <t>temp = ticket +1</t>
+  </si>
+  <si>
+    <t>return  0</t>
+  </si>
+  <si>
+    <t>return 0</t>
+  </si>
+  <si>
+    <t>t1.myTurn = 0</t>
+  </si>
+  <si>
+    <t>t2.myTurn = 0</t>
+  </si>
+  <si>
+    <t>while (myTurn != turn): myTurn==0 &amp;&amp; turn==0</t>
+  </si>
+  <si>
+    <t>(ticket=0, turn=0)</t>
+  </si>
+  <si>
+    <t>(ticket=1, turn=0)</t>
+  </si>
+  <si>
+    <t>EJERCICIO 7</t>
+  </si>
+  <si>
+    <t>MUTEX NO CUMPLE</t>
+  </si>
+  <si>
+    <t>T1.local = lock.loadLink()</t>
+  </si>
+  <si>
+    <t>T2.local = lock.loadLink()</t>
+  </si>
+  <si>
+    <t>storeConditional(T1.local,true)</t>
+  </si>
+  <si>
+    <t>storeConditional(T2.local,true)</t>
+  </si>
+  <si>
+    <t>GARANTIA DE ENTRADA NO CUMPLE</t>
+  </si>
+  <si>
+    <t>T1.local  = loadLink()</t>
+  </si>
+  <si>
+    <t>lock.timestamp = t1</t>
+  </si>
+  <si>
+    <t>lock.timestamp = t2</t>
+  </si>
+  <si>
+    <t>lock.timestamp = t3</t>
+  </si>
+  <si>
+    <t>storeConditional (T1.local, true)</t>
+  </si>
+  <si>
+    <t>storeConditional(T2.local, true)</t>
+  </si>
+  <si>
+    <t>Falla (timestamp != T2) → loop</t>
+  </si>
+  <si>
+    <t>Falla (timestamp != T1) → loop</t>
+  </si>
+  <si>
+    <r>
+      <t>lock.flag=false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>lock.timestamp=t1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lock.flag=false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>lock.timestamp=t2</t>
+    </r>
+  </si>
+  <si>
+    <t>lock.flag = true</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +328,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,24 +402,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,32 +755,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28954AE5-FA45-40BB-B7E0-F97AF71740A9}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -663,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -689,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -709,7 +863,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -733,7 +887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -753,7 +907,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -779,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -799,7 +953,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>2</v>
@@ -823,7 +977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -839,7 +993,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -855,7 +1009,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -871,7 +1025,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -887,12 +1041,12 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -906,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -914,7 +1068,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -922,7 +1076,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -930,7 +1084,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -938,7 +1092,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -947,9 +1101,9 @@
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -959,48 +1113,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" s="1" customFormat="1">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1011,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>35</v>
@@ -1029,14 +1183,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
@@ -1045,26 +1199,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1078,23 +1232,320 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
+    <row r="52" spans="1:4" s="1" customFormat="1">
+      <c r="A52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1">
+      <c r="A69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1">
+      <c r="B72" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="12" customFormat="1">
+      <c r="B73" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="12" customFormat="1">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="12" customFormat="1">
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="12" customFormat="1">
+      <c r="B76" s="8"/>
+      <c r="C76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="12" customFormat="1">
+      <c r="B77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" s="12" customFormat="1">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" s="12" customFormat="1">
+      <c r="B79" s="8"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" s="12" customFormat="1">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" s="12" customFormat="1">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" s="12" customFormat="1">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="B87" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="B89" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="B91" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="B94" s="8"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="B43:B44"/>

--- a/practica3/trazas.xlsx
+++ b/practica3/trazas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devnote\Desktop\programacion_concurrente\practica3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A6CA5-EB24-4DB6-AD82-334FAA23CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9E199-BD21-402C-AC96-12DA710C4AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0C96B478-7B41-42E6-8BD9-F1D545B7F386}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>EJERCICIO 1</t>
   </si>
@@ -290,6 +290,44 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>SIENDO ATOMICAS</t>
+  </si>
+  <si>
+    <r>
+      <t>lock.flag=false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>lock.timestamp=0</t>
+    </r>
+  </si>
+  <si>
+    <t>T1.local = (false, t1)</t>
+  </si>
+  <si>
+    <t>T2.local = (false,t1)</t>
+  </si>
+  <si>
+    <t>timestamp=t1 == T1.local.t1 -&gt; flag = true</t>
+  </si>
+  <si>
+    <t>timestamp=t1 == T2.local.t1 -&gt; flag = true</t>
   </si>
 </sst>
 </file>
@@ -402,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -411,6 +449,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,25 +471,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,24 +789,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28954AE5-FA45-40BB-B7E0-F97AF71740A9}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -1144,10 +1178,10 @@
       <c r="E30" s="2"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
@@ -1200,18 +1234,18 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="2"/>
@@ -1248,207 +1282,198 @@
       <c r="D49" s="2"/>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10" t="s">
+      <c r="A57" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="12" customFormat="1">
-      <c r="B72" s="8" t="s">
+    <row r="72" spans="1:4" s="7" customFormat="1">
+      <c r="B72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="12" customFormat="1">
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="1:4" s="7" customFormat="1">
+      <c r="B73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="12" customFormat="1">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
+    <row r="74" spans="1:4" s="7" customFormat="1">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="12" customFormat="1">
+    <row r="75" spans="1:4" s="7" customFormat="1">
       <c r="B75" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="12" customFormat="1">
-      <c r="B76" s="8"/>
+    <row r="76" spans="1:4" s="7" customFormat="1">
+      <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="12" customFormat="1">
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="1:4" s="7" customFormat="1">
+      <c r="B77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" s="12" customFormat="1">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" s="12" customFormat="1">
-      <c r="B79" s="8"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" s="12" customFormat="1">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" s="12" customFormat="1">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" s="12" customFormat="1">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" s="7" customFormat="1">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" s="7" customFormat="1">
+      <c r="B79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" s="7" customFormat="1">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" s="7" customFormat="1">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" s="7" customFormat="1">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -1456,41 +1481,41 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1499,58 +1524,151 @@
       <c r="C90" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="15" t="s">
+      <c r="C91" s="6"/>
+      <c r="D91" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="B92" s="8"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="8"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="B94" s="8"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="8"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" s="2"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
